--- a/data/trans_camb/P16-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,75</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>10,22; 27,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 34,6</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 18,95</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 23,78</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,46; 27,14</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>48,91%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66,66%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,36%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>23,75; 80,18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40,31; 98,97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 35,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 45,01</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,67; 46,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,48; 60,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 18,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 16,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,18; 20,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,62; 19,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 14,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 12,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 13,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,66; 14,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,01; 55,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,19; 47,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,2; 59,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 35,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,18; 26,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 22,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,46; 38,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,95; 30,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,16; 31,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 25,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 22,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,61; 31,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,98; 21,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 11,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 15,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,4; 21,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 14,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 20,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,7; 80,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 70,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,97; 98,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 37,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 20,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 27,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,05; 47,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,01; 30,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,91; 45,33</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,77; 19,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,43; 28,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 26,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,92; 24,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,18; 23,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 14,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,69; 19,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,72; 23,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 19,04</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,74; 53,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,31; 81,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,85; 72,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 44,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,71; 43,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 26,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,61; 42,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,23; 51,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 40,68</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 16,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 5,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 10,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 26,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 10,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,33; 9,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 19,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 5,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 8,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; 38,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,74; 14,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 25,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 48,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,25; 18,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; 16,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 37,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 10,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 15,74</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,9</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,59; 27,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 14,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,29; 26,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 20,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; 6,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 7,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,02; 21,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 7,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 14,51</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,85; 76,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 39,07</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,76; 74,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 33,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; 11,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 12,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,2; 44,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 15,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,99; 29,23</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,18; 19,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 12,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,79; 28,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,54; 17,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 6,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,27; 28,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,97; 17,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 8,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,09; 29,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,68%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 55,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 34,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,4; 79,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,32; 33,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; 12,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,25; 52,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,07; 38,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 18,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,68; 63,69</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 2,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 8,79</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; -3,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 7,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 12,59</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; -1,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 3,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 9,66</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; -2,9</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; 5,14</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 21,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; -8,68</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 13,39</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 23,18</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; -1,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 7,09</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 19,94</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,38; -6,08</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 12,54</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,74; 11,61</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 14,57</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 13,89</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 8,68</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 9,81</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 12,65</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 9,55</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 11,68</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,97; 32,02</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,15; 29,7</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,99; 37,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,5; 24,19</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 15,21</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 16,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,55; 26,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,98; 19,52</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 23,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>25,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,75</t>
+          <t>20,46</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 25,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 34,6</t>
+          <t>16,19; 33,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,98; 26,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 23,78</t>
+          <t>7,22; 23,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,96; 24,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 27,14</t>
+          <t>13,78; 26,21</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>41,72%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,68; 73,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,31; 98,97</t>
+          <t>37,65; 97,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,51; 49,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 45,01</t>
+          <t>11,24; 43,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,68; 53,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,48; 60,03</t>
+          <t>26,51; 57,44</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>8,61</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 20,66</t>
+          <t>4,54; 19,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,28</t>
+          <t>1,06; 12,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,48</t>
+          <t>3,4; 13,5</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>17,78%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 59,09</t>
+          <t>10,91; 54,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 22,14</t>
+          <t>1,67; 21,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 31,63</t>
+          <t>6,81; 29,55</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,24</t>
+          <t>22,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,85</t>
+          <t>15,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,61; 31,15</t>
+          <t>14,97; 30,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 15,65</t>
+          <t>1,6; 15,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 20,92</t>
+          <t>9,74; 20,38</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,97; 98,53</t>
+          <t>37,12; 96,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 27,44</t>
+          <t>2,47; 26,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,91; 45,33</t>
+          <t>18,75; 44,2</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>16,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,94</t>
+          <t>13,45</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 19,09</t>
+          <t>1,18; 16,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,15; 26,58</t>
+          <t>8,29; 26,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 24,03</t>
+          <t>10,23; 23,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 14,65</t>
+          <t>-6,1; 22,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,59</t>
+          <t>7,34; 18,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 19,04</t>
+          <t>5,08; 24,06</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>27,47%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,74; 53,42</t>
+          <t>2,15; 43,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,85; 72,19</t>
+          <t>19,28; 71,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,95; 44,95</t>
+          <t>16,66; 42,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 26,83</t>
+          <t>-10,21; 40,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,61; 42,48</t>
+          <t>14,19; 39,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 40,68</t>
+          <t>9,92; 50,72</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 10,5</t>
+          <t>-8,89; 10,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 9,18</t>
+          <t>-6,86; 9,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,09</t>
+          <t>-4,27; 8,22</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 25,41</t>
+          <t>-16,05; 25,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 16,05</t>
+          <t>-10,19; 16,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 15,74</t>
+          <t>-7,54; 16,06</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>8,79</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,29; 26,63</t>
+          <t>9,71; 26,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 7,46</t>
+          <t>-7,82; 7,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,94; 14,51</t>
+          <t>3,52; 14,2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,76; 74,85</t>
+          <t>21,36; 73,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 12,45</t>
+          <t>-11,53; 12,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>6,99; 29,23</t>
+          <t>6,26; 28,55</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>22,46</t>
+          <t>21,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>17,71</t>
+          <t>20,71</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,68</t>
+          <t>22,12</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,79; 28,71</t>
+          <t>15,48; 27,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,27; 28,79</t>
+          <t>11,26; 34,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,09; 29,25</t>
+          <t>15,84; 35,85</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>46,72%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>40,4; 79,05</t>
+          <t>37,58; 76,33</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>19,25; 52,9</t>
+          <t>19,83; 67,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>32,68; 63,69</t>
+          <t>32,35; 78,21</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-8,41</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-12,18</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -3,68</t>
+          <t>-33,67; -4,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -1,06</t>
+          <t>-9,65; -0,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -2,9</t>
+          <t>-26,08; -4,16</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>-35,99%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-8,85%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-24,01%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -8,68</t>
+          <t>-70,66; -10,94</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -1,92</t>
+          <t>-16,51; -0,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -6,08</t>
+          <t>-51,47; -8,45</t>
         </is>
       </c>
     </row>
@@ -2370,14 +2370,14 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>11,65</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>11,65</t>
-        </is>
-      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>6,27</t>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>8,3</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,25; 14,57</t>
+          <t>-3,5; 13,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,81</t>
+          <t>4,22; 13,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,68</t>
+          <t>1,84; 12,24</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,99; 37,0</t>
+          <t>-7,9; 33,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>5,99; 16,85</t>
+          <t>7,18; 24,01</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,63</t>
+          <t>4,2; 24,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 25,91</t>
+          <t>8,89; 25,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,22; 27,49</t>
+          <t>10,55; 27,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 33,78</t>
+          <t>15,88; 33,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 26,68</t>
+          <t>10,46; 26,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 18,95</t>
+          <t>2,3; 19,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 23,46</t>
+          <t>7,8; 23,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 24,1</t>
+          <t>12,06; 23,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 21,23</t>
+          <t>9,42; 21,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 26,21</t>
+          <t>13,4; 26,51</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 73,14</t>
+          <t>20,2; 73,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 80,18</t>
+          <t>24,12; 81,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,65; 97,33</t>
+          <t>36,04; 96,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 49,86</t>
+          <t>16,43; 49,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 35,16</t>
+          <t>3,6; 35,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 43,39</t>
+          <t>12,93; 45,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 53,76</t>
+          <t>23,06; 52,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 46,76</t>
+          <t>17,8; 47,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,51; 57,44</t>
+          <t>25,68; 58,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 18,83</t>
+          <t>6,87; 19,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 16,57</t>
+          <t>3,62; 16,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 19,23</t>
+          <t>3,79; 18,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 19,33</t>
+          <t>7,48; 19,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,84</t>
+          <t>2,81; 14,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 12,12</t>
+          <t>-0,2; 12,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,54</t>
+          <t>8,54; 17,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,97</t>
+          <t>5,18; 13,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,5</t>
+          <t>3,63; 13,35</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 55,14</t>
+          <t>15,92; 56,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 47,18</t>
+          <t>7,66; 47,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 54,41</t>
+          <t>9,43; 53,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 35,03</t>
+          <t>12,18; 34,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 26,98</t>
+          <t>4,54; 26,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 21,78</t>
+          <t>-0,3; 22,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 38,41</t>
+          <t>16,69; 37,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 30,38</t>
+          <t>10,22; 29,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 29,55</t>
+          <t>7,33; 28,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 25,94</t>
+          <t>10,35; 26,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 22,21</t>
+          <t>7,4; 22,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 30,88</t>
+          <t>14,48; 30,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 21,48</t>
+          <t>6,35; 21,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 11,51</t>
+          <t>-3,73; 11,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,37</t>
+          <t>0,57; 15,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 21,87</t>
+          <t>10,7; 21,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 14,38</t>
+          <t>3,94; 14,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,38</t>
+          <t>9,66; 20,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 80,45</t>
+          <t>25,96; 83,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 70,93</t>
+          <t>17,97; 68,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,12; 96,43</t>
+          <t>36,35; 93,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 37,01</t>
+          <t>9,7; 36,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 20,12</t>
+          <t>-6,37; 19,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 26,96</t>
+          <t>0,9; 27,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,05; 47,47</t>
+          <t>20,5; 47,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 30,96</t>
+          <t>7,64; 32,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,75; 44,2</t>
+          <t>18,65; 45,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 16,05</t>
+          <t>1,88; 16,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 28,49</t>
+          <t>14,59; 28,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,29; 26,29</t>
+          <t>8,62; 26,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 23,04</t>
+          <t>10,06; 23,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 23,43</t>
+          <t>9,98; 23,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 22,49</t>
+          <t>-4,76; 22,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,04</t>
+          <t>7,89; 18,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,72; 23,83</t>
+          <t>13,78; 23,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 24,06</t>
+          <t>4,7; 24,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 43,86</t>
+          <t>4,62; 44,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,31; 81,02</t>
+          <t>33,7; 81,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,28; 71,35</t>
+          <t>20,51; 72,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 42,62</t>
+          <t>16,32; 42,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,71; 43,64</t>
+          <t>16,45; 43,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 40,29</t>
+          <t>-8,11; 41,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 39,26</t>
+          <t>15,09; 39,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,23; 51,9</t>
+          <t>26,64; 50,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,92; 50,72</t>
+          <t>8,92; 51,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 16,19</t>
+          <t>-3,12; 16,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 5,97</t>
+          <t>-13,32; 5,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 10,54</t>
+          <t>-8,65; 10,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,91; 26,94</t>
+          <t>9,5; 27,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 10,54</t>
+          <t>-7,65; 10,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 9,53</t>
+          <t>-7,92; 8,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,08; 19,07</t>
+          <t>4,98; 18,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,58</t>
+          <t>-7,77; 5,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 8,22</t>
+          <t>-4,44; 8,29</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 38,32</t>
+          <t>-6,02; 38,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 14,8</t>
+          <t>-26,09; 13,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 25,49</t>
+          <t>-16,59; 24,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,86; 48,26</t>
+          <t>13,67; 47,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 18,4</t>
+          <t>-11,55; 17,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 16,74</t>
+          <t>-11,34; 15,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,68; 37,41</t>
+          <t>8,48; 36,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 10,94</t>
+          <t>-13,09; 9,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 16,06</t>
+          <t>-7,54; 16,42</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,59; 27,13</t>
+          <t>10,27; 26,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 14,47</t>
+          <t>-2,58; 14,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,71; 26,09</t>
+          <t>9,74; 25,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,26; 20,23</t>
+          <t>5,68; 20,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 6,79</t>
+          <t>-9,92; 6,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 7,47</t>
+          <t>-7,55; 7,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,02; 21,89</t>
+          <t>10,01; 21,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 7,82</t>
+          <t>-3,67; 9,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,2</t>
+          <t>2,99; 14,17</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,85; 76,67</t>
+          <t>23,2; 73,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 39,07</t>
+          <t>-5,52; 39,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,36; 73,17</t>
+          <t>23,33; 71,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,75; 33,85</t>
+          <t>8,46; 34,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 11,05</t>
+          <t>-14,29; 11,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 12,35</t>
+          <t>-11,06; 13,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,2; 44,96</t>
+          <t>17,9; 43,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 15,65</t>
+          <t>-6,73; 18,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>6,26; 28,55</t>
+          <t>5,3; 28,58</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,18; 19,55</t>
+          <t>7,89; 19,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,58</t>
+          <t>0,93; 12,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,48; 27,72</t>
+          <t>15,07; 27,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,54; 17,39</t>
+          <t>6,35; 17,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,78</t>
+          <t>-4,14; 6,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,26; 34,45</t>
+          <t>11,19; 33,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,97; 17,11</t>
+          <t>8,55; 16,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 8,14</t>
+          <t>0,1; 8,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,84; 35,85</t>
+          <t>15,93; 36,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>20,29; 55,25</t>
+          <t>18,66; 56,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,24; 34,95</t>
+          <t>2,14; 35,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>37,58; 76,33</t>
+          <t>35,98; 77,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>11,32; 33,06</t>
+          <t>10,75; 33,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 12,98</t>
+          <t>-7,0; 12,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>19,83; 67,54</t>
+          <t>19,86; 63,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,07; 38,13</t>
+          <t>17,68; 36,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,1; 18,53</t>
+          <t>0,17; 17,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>32,35; 78,21</t>
+          <t>33,0; 76,23</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,21</t>
+          <t>-8,05; 1,99</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,79</t>
+          <t>-1,47; 8,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-33,67; -4,74</t>
+          <t>-32,87; -4,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,11</t>
+          <t>-2,92; 7,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,59</t>
+          <t>2,69; 12,29</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -0,45</t>
+          <t>-9,99; -0,09</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,45</t>
+          <t>-3,93; 3,35</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,66</t>
+          <t>1,71; 9,19</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-26,08; -4,16</t>
+          <t>-28,24; -4,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 5,14</t>
+          <t>-17,1; 4,79</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 21,1</t>
+          <t>-3,17; 20,34</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-70,66; -10,94</t>
+          <t>-71,74; -9,09</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 13,39</t>
+          <t>-4,9; 14,46</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,65; 23,18</t>
+          <t>4,52; 22,98</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -0,9</t>
+          <t>-17,01; -0,29</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 7,09</t>
+          <t>-7,41; 6,71</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>3,85; 19,94</t>
+          <t>3,24; 18,77</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-51,47; -8,45</t>
+          <t>-53,57; -9,24</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,54</t>
+          <t>7,44; 12,38</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,61</t>
+          <t>6,94; 11,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,58</t>
+          <t>-2,69; 13,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,89</t>
+          <t>9,24; 14,02</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,68</t>
+          <t>3,73; 8,51</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,67</t>
+          <t>4,37; 14,35</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,65</t>
+          <t>9,09; 12,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,55</t>
+          <t>6,16; 9,49</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,24</t>
+          <t>1,57; 11,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>17,97; 32,02</t>
+          <t>17,8; 31,66</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>16,15; 29,7</t>
+          <t>16,35; 29,76</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 33,96</t>
+          <t>-6,28; 32,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>15,5; 24,19</t>
+          <t>15,46; 24,38</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,21</t>
+          <t>6,26; 14,95</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,18; 24,01</t>
+          <t>7,37; 24,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,55; 26,01</t>
+          <t>18,04; 25,76</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,52</t>
+          <t>12,2; 19,39</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>4,2; 24,82</t>
+          <t>3,19; 24,2</t>
         </is>
       </c>
     </row>
